--- a/biology/Botanique/Parc_de_Majolan/Parc_de_Majolan.xlsx
+++ b/biology/Botanique/Parc_de_Majolan/Parc_de_Majolan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Majolan est un parc public situé dans la commune de Blanquefort (Gironde).
@@ -512,7 +524,9 @@
           <t>Création du parc</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été réalisé en une dizaine d’années, de 1870 à 1880, par le paysagiste Louis Le Breton (père de Georges Le Breton), dans le goût romantique baroque, sur un terrain relevant du domaine de Dulamon qui avait été acquis par un riche banquier, Jean Gustave Piganeau, grâce à son mariage avec la fille de Joseph Prom, propriétaire du domaine.
 Ce terrain n’était au départ qu’un marécage et la Jalle dut être détournée afin de créer le lac. Le but du parc était de manifester la richesse de son propriétaire, en imitant ce qui s’était fait à Paris. La légende dit que le parc devait servir à consoler sa fille malade.
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par la suite, Gustave Piganeau fait faillite et le château est revendu, ainsi que l'ensemble du domaine. Il connaît un état de quasi abandon et est finalement racheté par un agriculteur. Dans les années 1950, une guinguette y est installée.
 Propriété de la commune depuis 1975, il est ouvert au public depuis 1984. Le parc est l'un des lieux de promenade prisés des habitants de l'agglomération bordelaise.
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est une illustration grandeur nature du savoir-faire des architectes, ingénieurs, artisans et artistes de la fin du XIXe siècle. Parti du néant, une zone marécageuse de 20 hectares, 150 000 m3 de terre furent dégagés à la pelle afin de créer un lac de 4 hectares à partir de la Jalle traversant le lieu et de donner forme aux différents endroits du parc. Les grottes artificielles (réalisées à la chaux, comme les ruines) et les canyons, sont des merveilles d’ingéniosité hydraulique avec leurs fontaines et leurs geysers d’eau, et de maîtrise de l’art des rocailleurs.
 </t>
@@ -609,7 +627,9 @@
           <t>Quelques dates</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">3 janvier 1975 : Acte d'achat par la commune
 juin 1976 : travaux de lutte contre la pollution et épandage de craie
